--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl11-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl11-Ccr5.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>3.498267</v>
+        <v>0.738254</v>
       </c>
       <c r="H2">
-        <v>10.494801</v>
+        <v>2.214762</v>
       </c>
       <c r="I2">
-        <v>0.02652289550929144</v>
+        <v>0.005691320045803731</v>
       </c>
       <c r="J2">
-        <v>0.02652289550929144</v>
+        <v>0.005691320045803731</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.006469</v>
+        <v>0.007957000000000001</v>
       </c>
       <c r="N2">
-        <v>0.019407</v>
+        <v>0.023871</v>
       </c>
       <c r="O2">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="P2">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="Q2">
-        <v>0.022630289223</v>
+        <v>0.005874287078</v>
       </c>
       <c r="R2">
-        <v>0.203672603007</v>
+        <v>0.052868583702</v>
       </c>
       <c r="S2">
-        <v>5.338575044308476E-06</v>
+        <v>1.393769843077063E-06</v>
       </c>
       <c r="T2">
-        <v>5.338575044308476E-06</v>
+        <v>1.393769843077063E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3.498267</v>
+        <v>0.738254</v>
       </c>
       <c r="H3">
-        <v>10.494801</v>
+        <v>2.214762</v>
       </c>
       <c r="I3">
-        <v>0.02652289550929144</v>
+        <v>0.005691320045803731</v>
       </c>
       <c r="J3">
-        <v>0.02652289550929144</v>
+        <v>0.005691320045803731</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.316709</v>
       </c>
       <c r="O3">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578298</v>
       </c>
       <c r="P3">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578299</v>
       </c>
       <c r="Q3">
-        <v>0.369310881101</v>
+        <v>0.07793722869533333</v>
       </c>
       <c r="R3">
-        <v>3.323797929909</v>
+        <v>0.701435058258</v>
       </c>
       <c r="S3">
-        <v>8.712190259740781E-05</v>
+        <v>1.84918710247201E-05</v>
       </c>
       <c r="T3">
-        <v>8.712190259740781E-05</v>
+        <v>1.84918710247201E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3.498267</v>
+        <v>0.738254</v>
       </c>
       <c r="H4">
-        <v>10.494801</v>
+        <v>2.214762</v>
       </c>
       <c r="I4">
-        <v>0.02652289550929144</v>
+        <v>0.005691320045803731</v>
       </c>
       <c r="J4">
-        <v>0.02652289550929144</v>
+        <v>0.005691320045803731</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.573836</v>
+        <v>0.02449766666666667</v>
       </c>
       <c r="N4">
-        <v>1.721508</v>
+        <v>0.073493</v>
       </c>
       <c r="O4">
-        <v>0.01785480276353103</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="P4">
-        <v>0.01785480276353102</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="Q4">
-        <v>2.007431542212</v>
+        <v>0.01808550040733333</v>
       </c>
       <c r="R4">
-        <v>18.066883879908</v>
+        <v>0.162769503666</v>
       </c>
       <c r="S4">
-        <v>0.0004735610680361414</v>
+        <v>4.291078173401306E-06</v>
       </c>
       <c r="T4">
-        <v>0.0004735610680361414</v>
+        <v>4.291078173401306E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>3.498267</v>
+        <v>0.738254</v>
       </c>
       <c r="H5">
-        <v>10.494801</v>
+        <v>2.214762</v>
       </c>
       <c r="I5">
-        <v>0.02652289550929144</v>
+        <v>0.005691320045803731</v>
       </c>
       <c r="J5">
-        <v>0.02652289550929144</v>
+        <v>0.005691320045803731</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.453153</v>
+        <v>32.353591</v>
       </c>
       <c r="N5">
-        <v>94.359459</v>
+        <v>97.060773</v>
       </c>
       <c r="O5">
-        <v>0.9786591345021298</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="P5">
-        <v>0.9786591345021296</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="Q5">
-        <v>110.031527185851</v>
+        <v>23.885167970114</v>
       </c>
       <c r="R5">
-        <v>990.2837446726589</v>
+        <v>214.966511731026</v>
       </c>
       <c r="S5">
-        <v>0.02595687396361359</v>
+        <v>0.005667143326762532</v>
       </c>
       <c r="T5">
-        <v>0.02595687396361358</v>
+        <v>0.005667143326762532</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>367.374267</v>
       </c>
       <c r="I6">
-        <v>0.9284434546632694</v>
+        <v>0.9440493064670392</v>
       </c>
       <c r="J6">
-        <v>0.9284434546632696</v>
+        <v>0.9440493064670391</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.006469</v>
+        <v>0.007957000000000001</v>
       </c>
       <c r="N6">
-        <v>0.019407</v>
+        <v>0.023871</v>
       </c>
       <c r="O6">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="P6">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="Q6">
-        <v>0.7921813777409999</v>
+        <v>0.9743990141730002</v>
       </c>
       <c r="R6">
-        <v>7.129632399669</v>
+        <v>8.769591127557002</v>
       </c>
       <c r="S6">
-        <v>0.0001868787310714437</v>
+        <v>0.0002311919630493665</v>
       </c>
       <c r="T6">
-        <v>0.0001868787310714438</v>
+        <v>0.0002311919630493665</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>367.374267</v>
       </c>
       <c r="I7">
-        <v>0.9284434546632694</v>
+        <v>0.9440493064670392</v>
       </c>
       <c r="J7">
-        <v>0.9284434546632696</v>
+        <v>0.9440493064670391</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.316709</v>
       </c>
       <c r="O7">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578298</v>
       </c>
       <c r="P7">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578299</v>
       </c>
       <c r="Q7">
         <v>12.927859636367</v>
@@ -883,10 +883,10 @@
         <v>116.350736727303</v>
       </c>
       <c r="S7">
-        <v>0.003049733397171427</v>
+        <v>0.003067344284923205</v>
       </c>
       <c r="T7">
-        <v>0.003049733397171427</v>
+        <v>0.003067344284923205</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>367.374267</v>
       </c>
       <c r="I8">
-        <v>0.9284434546632694</v>
+        <v>0.9440493064670392</v>
       </c>
       <c r="J8">
-        <v>0.9284434546632696</v>
+        <v>0.9440493064670391</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.573836</v>
+        <v>0.02449766666666667</v>
       </c>
       <c r="N8">
-        <v>1.721508</v>
+        <v>0.073493</v>
       </c>
       <c r="O8">
-        <v>0.01785480276353103</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="P8">
-        <v>0.01785480276353102</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="Q8">
-        <v>70.27085995940399</v>
+        <v>2.999937444959</v>
       </c>
       <c r="R8">
-        <v>632.4377396346359</v>
+        <v>26.999437004631</v>
       </c>
       <c r="S8">
-        <v>0.01657717476010404</v>
+        <v>0.0007117837937408192</v>
       </c>
       <c r="T8">
-        <v>0.01657717476010404</v>
+        <v>0.0007117837937408191</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>367.374267</v>
       </c>
       <c r="I9">
-        <v>0.9284434546632694</v>
+        <v>0.9440493064670392</v>
       </c>
       <c r="J9">
-        <v>0.9284434546632696</v>
+        <v>0.9440493064670391</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.453153</v>
+        <v>32.353591</v>
       </c>
       <c r="N9">
-        <v>94.359459</v>
+        <v>97.060773</v>
       </c>
       <c r="O9">
-        <v>0.9786591345021298</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="P9">
-        <v>0.9786591345021296</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="Q9">
-        <v>3851.693009404617</v>
+        <v>3961.9589261476</v>
       </c>
       <c r="R9">
-        <v>34665.23708464155</v>
+        <v>35657.63033532839</v>
       </c>
       <c r="S9">
-        <v>0.9086296677749226</v>
+        <v>0.9400389864253258</v>
       </c>
       <c r="T9">
-        <v>0.9086296677749226</v>
+        <v>0.9400389864253257</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.465569666666667</v>
+        <v>5.698467</v>
       </c>
       <c r="H10">
-        <v>16.396709</v>
+        <v>17.095401</v>
       </c>
       <c r="I10">
-        <v>0.04143844171063926</v>
+        <v>0.0439304080539368</v>
       </c>
       <c r="J10">
-        <v>0.04143844171063927</v>
+        <v>0.04393040805393679</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.006469</v>
+        <v>0.007957000000000001</v>
       </c>
       <c r="N10">
-        <v>0.019407</v>
+        <v>0.023871</v>
       </c>
       <c r="O10">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="P10">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="Q10">
-        <v>0.03535677017366667</v>
+        <v>0.045342701919</v>
       </c>
       <c r="R10">
-        <v>0.318210931563</v>
+        <v>0.408084317271</v>
       </c>
       <c r="S10">
-        <v>8.340802410278023E-06</v>
+        <v>1.075829112523579E-05</v>
       </c>
       <c r="T10">
-        <v>8.340802410278025E-06</v>
+        <v>1.075829112523579E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.465569666666667</v>
+        <v>5.698467</v>
       </c>
       <c r="H11">
-        <v>16.396709</v>
+        <v>17.095401</v>
       </c>
       <c r="I11">
-        <v>0.04143844171063926</v>
+        <v>0.0439304080539368</v>
       </c>
       <c r="J11">
-        <v>0.04143844171063927</v>
+        <v>0.04393040805393679</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.316709</v>
       </c>
       <c r="O11">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578298</v>
       </c>
       <c r="P11">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578299</v>
       </c>
       <c r="Q11">
-        <v>0.5769983678534445</v>
+        <v>0.601585261701</v>
       </c>
       <c r="R11">
-        <v>5.192985310681001</v>
+        <v>5.414267355309</v>
       </c>
       <c r="S11">
-        <v>0.0001361162050062731</v>
+        <v>0.0001427358562264799</v>
       </c>
       <c r="T11">
-        <v>0.0001361162050062731</v>
+        <v>0.0001427358562264799</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.465569666666667</v>
+        <v>5.698467</v>
       </c>
       <c r="H12">
-        <v>16.396709</v>
+        <v>17.095401</v>
       </c>
       <c r="I12">
-        <v>0.04143844171063926</v>
+        <v>0.0439304080539368</v>
       </c>
       <c r="J12">
-        <v>0.04143844171063927</v>
+        <v>0.04393040805393679</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.573836</v>
+        <v>0.02449766666666667</v>
       </c>
       <c r="N12">
-        <v>1.721508</v>
+        <v>0.073493</v>
       </c>
       <c r="O12">
-        <v>0.01785480276353103</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="P12">
-        <v>0.01785480276353102</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="Q12">
-        <v>3.136340635241333</v>
+        <v>0.139599145077</v>
       </c>
       <c r="R12">
-        <v>28.227065717172</v>
+        <v>1.256392305693</v>
       </c>
       <c r="S12">
-        <v>0.0007398752035715412</v>
+        <v>3.312216034799354E-05</v>
       </c>
       <c r="T12">
-        <v>0.0007398752035715412</v>
+        <v>3.312216034799354E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.465569666666667</v>
+        <v>5.698467</v>
       </c>
       <c r="H13">
-        <v>16.396709</v>
+        <v>17.095401</v>
       </c>
       <c r="I13">
-        <v>0.04143844171063926</v>
+        <v>0.0439304080539368</v>
       </c>
       <c r="J13">
-        <v>0.04143844171063927</v>
+        <v>0.04393040805393679</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>31.453153</v>
+        <v>32.353591</v>
       </c>
       <c r="N13">
-        <v>94.359459</v>
+        <v>97.060773</v>
       </c>
       <c r="O13">
-        <v>0.9786591345021298</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="P13">
-        <v>0.9786591345021296</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="Q13">
-        <v>171.9093989578257</v>
+        <v>184.365870644997</v>
       </c>
       <c r="R13">
-        <v>1547.184590620431</v>
+        <v>1659.292835804973</v>
       </c>
       <c r="S13">
-        <v>0.04055410949965118</v>
+        <v>0.04374379174623708</v>
       </c>
       <c r="T13">
-        <v>0.04055410949965117</v>
+        <v>0.04374379174623708</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4741939999999999</v>
+        <v>0.8209666666666666</v>
       </c>
       <c r="H14">
-        <v>1.422582</v>
+        <v>2.4629</v>
       </c>
       <c r="I14">
-        <v>0.003595208116799817</v>
+        <v>0.006328965433220369</v>
       </c>
       <c r="J14">
-        <v>0.003595208116799817</v>
+        <v>0.006328965433220369</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1299,28 +1299,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.006469</v>
+        <v>0.007957000000000001</v>
       </c>
       <c r="N14">
-        <v>0.019407</v>
+        <v>0.023871</v>
       </c>
       <c r="O14">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="P14">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="Q14">
-        <v>0.003067560986</v>
+        <v>0.006532431766666667</v>
       </c>
       <c r="R14">
-        <v>0.027608048874</v>
+        <v>0.05879188589999999</v>
       </c>
       <c r="S14">
-        <v>7.236498113382464E-07</v>
+        <v>1.549925340291416E-06</v>
       </c>
       <c r="T14">
-        <v>7.236498113382465E-07</v>
+        <v>1.549925340291416E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4741939999999999</v>
+        <v>0.8209666666666666</v>
       </c>
       <c r="H15">
-        <v>1.422582</v>
+        <v>2.4629</v>
       </c>
       <c r="I15">
-        <v>0.003595208116799817</v>
+        <v>0.006328965433220369</v>
       </c>
       <c r="J15">
-        <v>0.003595208116799817</v>
+        <v>0.006328965433220369</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.316709</v>
       </c>
       <c r="O15">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578298</v>
       </c>
       <c r="P15">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578299</v>
       </c>
       <c r="Q15">
-        <v>0.05006050251533333</v>
+        <v>0.08666917734444445</v>
       </c>
       <c r="R15">
-        <v>0.4505445226379999</v>
+        <v>0.7800225961</v>
       </c>
       <c r="S15">
-        <v>1.18094712268318E-05</v>
+        <v>2.056366740389402E-05</v>
       </c>
       <c r="T15">
-        <v>1.18094712268318E-05</v>
+        <v>2.056366740389403E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4741939999999999</v>
+        <v>0.8209666666666666</v>
       </c>
       <c r="H16">
-        <v>1.422582</v>
+        <v>2.4629</v>
       </c>
       <c r="I16">
-        <v>0.003595208116799817</v>
+        <v>0.006328965433220369</v>
       </c>
       <c r="J16">
-        <v>0.003595208116799817</v>
+        <v>0.006328965433220369</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.573836</v>
+        <v>0.02449766666666667</v>
       </c>
       <c r="N16">
-        <v>1.721508</v>
+        <v>0.073493</v>
       </c>
       <c r="O16">
-        <v>0.01785480276353103</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="P16">
-        <v>0.01785480276353102</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="Q16">
-        <v>0.272109588184</v>
+        <v>0.02011176774444444</v>
       </c>
       <c r="R16">
-        <v>2.448986293656</v>
+        <v>0.1810059097</v>
       </c>
       <c r="S16">
-        <v>6.419173181930654E-05</v>
+        <v>4.771842948935407E-06</v>
       </c>
       <c r="T16">
-        <v>6.419173181930654E-05</v>
+        <v>4.771842948935407E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4741939999999999</v>
+        <v>0.8209666666666666</v>
       </c>
       <c r="H17">
-        <v>1.422582</v>
+        <v>2.4629</v>
       </c>
       <c r="I17">
-        <v>0.003595208116799817</v>
+        <v>0.006328965433220369</v>
       </c>
       <c r="J17">
-        <v>0.003595208116799817</v>
+        <v>0.006328965433220369</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>31.453153</v>
+        <v>32.353591</v>
       </c>
       <c r="N17">
-        <v>94.359459</v>
+        <v>97.060773</v>
       </c>
       <c r="O17">
-        <v>0.9786591345021298</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="P17">
-        <v>0.9786591345021296</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="Q17">
-        <v>14.914896433682</v>
+        <v>26.56121975796666</v>
       </c>
       <c r="R17">
-        <v>134.234067903138</v>
+        <v>239.0509778217</v>
       </c>
       <c r="S17">
-        <v>0.003518483263942341</v>
+        <v>0.006302079997527248</v>
       </c>
       <c r="T17">
-        <v>0.00351848326394234</v>
+        <v>0.006302079997527248</v>
       </c>
     </row>
   </sheetData>
